--- a/biology/Botanique/Isoète_voilé/Isoète_voilé.xlsx
+++ b/biology/Botanique/Isoète_voilé/Isoète_voilé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Iso%C3%A8te_voil%C3%A9</t>
+          <t>Isoète_voilé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isoetes longissima, synonyme : Isoetes velata, l'Isoète voilé, est une espèce de plantes vivaces de la famille des Isoetaceae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Iso%C3%A8te_voil%C3%A9</t>
+          <t>Isoète_voilé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante aquatique, longtemps submergée puis exondée. Bulbe généralement non entouré par des squames à base indurée noire ou brune (phyllopodes) qui proviennent des feuilles mortes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Iso%C3%A8te_voil%C3%A9</t>
+          <t>Isoète_voilé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Isoetes velata est protégé sur l'ensemble du territoire français métropolitain (Article 1).
 Isoetes velata subsp. dubia (Gennari) Batt. &amp; Trab. est protégé en Algérie.</t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Iso%C3%A8te_voil%C3%A9</t>
+          <t>Isoète_voilé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a pour synonymes[2] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette espèce a pour synonymes : 
 Isoetes adspersa A.Braun
 Isoetes capillacea Bory
 Isoetes decipiens Bory
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Iso%C3%A8te_voil%C3%A9</t>
+          <t>Isoète_voilé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,9 +634,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 juin 2020)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 juin 2020) :
 sous-espèce Isoetes longissima subsp. adspersa (A.Br.) Troia &amp; Greuter
 sous-espèce Isoetes longissima subsp. asturicensis
 sous-espèce Isoetes longissima subsp. intermedia (Trabut) Troia &amp; Greuter
